--- a/Рубеж 2021.xlsx
+++ b/Рубеж 2021.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="450">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Фотография</t>
-  </si>
-  <si>
     <t>ФИО</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
     <t>Итоговая оценка</t>
   </si>
   <si>
+    <t>Ссылка на фотографию</t>
+  </si>
+  <si>
     <t xml:space="preserve">Кошелева Анастасия Вячеславовна </t>
   </si>
   <si>
@@ -852,12 +852,309 @@
     <t>-</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1yVOD5dGp9Z9kQRDk4ryYzh6E8OAbpMJk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1CPlFtRngcfFMlnrIjm5wYv_MvgraoCx6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1lgxHaxRZSSURslHVTEkT514y_E0b-I5g</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Zt0UWJ932aEqtjvGhJGf4AMiLTm6UBVI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1UH6_wznfOOV40I_Vs_peAmJ8EIXYQAs9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1pTLHUf_Mt-pSs4FydrjAmwjVsmex-twc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1VJqX3UOtnqlbJCZTikIM-Zju9KofQf3h</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1mx889DW-NwUSq4cGoB6cmmAnxyQfbV-N</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1z243vIrWFqFnL2WUETbkxM5udrJ1EV7J</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1wT3tjP0P2m_avgw6nBVUsgHdEQvpnwY4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1rAftUp1LQ0a7afuqAnVt5hXnC4GkkJH4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1X9urCSmjpVRzGFVCZE0XDJPrqUO0uoOv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Q62c56mcHz179MnjkNNdqU0YKUXHbNjF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1XEyl-mrH3b2LVXpHwiqWXCZBLxmbnKUc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1crVx9dlHST4xN7Wissh9jZqSqSIJK_do</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1olCGiHUAIIf4pFyAgkAOcc94cX32FmY-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ZVaG4R3jeaAPx46LlM5rkQfI1hkeZGUF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1q0_v9wPBSWrTHbsTAPbnJ88nQgOOvlWb</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ExO5Ji7VurFXQqK1vzvYLOJNQnLZO3au</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1O972Gpf3jDJwtxXBbU2BRYWe4bjVOxga</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1y7xTkN5h7id502sBDyoTfnwYOA3zW71I</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1uy-pOAyrCbids3pPc6tlw56eHTDCtMHe</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=17M3NR9wMAMPK54RkJfZQ7s-0hxSnm33i</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1LzkulQwi7Y5DCATdBDuxMWsreK24ULmu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Gy1FRycrH60wAjmDVae_abLOxCjk7s1n</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1p5SN-bAlp9V_0MHXQ3qgmk52zRUQ4G_6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=116KuGUeYSsphQqcBkycaPVcV0HEfodko</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1MMlQCmrHPPs7tqZX7bMCGwajNEANMKBy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1kJk0HrhAObtCIB6X6Ul94byNOxMgipAW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1-5IDKdXLn0gIdKBbWDZUosmoEscmK19g</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=17lXukpRjEjfLTvT-YHYAw4edBC0D4ZPy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HTxeVJ30kQm6I-F9wRuelgchD-6nVWN3</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=155BOf1jALn-6ppVy0lWFL67ae-8Hccbx</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1u0LqdRJP0BlLJyFOXHh7YwvHYTmGGZ4A</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Ihast0g0-lqsii-mfSGamhiLlZ8JvrL1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1mggvQiqHpk3ir5423GM3HH6ipAMK_u1Y</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1V5S8cUc0e5TKDfbDxzEBzR1TgYG-xO2x</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1mybSwmYBXpn9qnYqsnkGbdEkpww48zpj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HlE0td0KvPxJPD9m_xL9mtz2UNjDqKPf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=111P3eMz7dGmEMVGmqZefiHfD_8jAmwZ0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Q0juttlPjlOU6xywuhyX2DCYlT1tWYF-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1GJhs5kEBFMK9eucZsdugC_YOf6Cc8V72</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1uWKP1AurAj6eIprHmqjzZKiP2n4Eatac</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15ZH0wgFxBW-JajoE4eq1K0c6sz5s1f-v</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1WxroHcadJFtTucYGIO-1Rnj4T6fyqp5H</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1NyPHDy6aQnOmBcmFZHmyTGeN4pZFhh5r</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1UkgixckBgN-vBex2UNfYEZ6C1s0vWyvy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1awUbQA1JIGn2pHbqL1T2w_XjC5N7cwVY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1uN0VkekvmvC_JL43CAozvCRyQPawb-z-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1jNty5Cq9X_noT8zQZ_N3qNEvq1uWSyfH</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=12shPKNIEexGSdfj0RKXAcbdBTyAGRTzI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1huEWpE_7oCeGRfxok-SkWXKegIXnTAdA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1VlwAFVBnN6gb-R0k5IsK-2PDwLMfmt5l</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1bW4LnbkYwU6qVqe2kOUDcbPMH0FTh04A</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1O6thxT_9UpfTJWYTo7906GHRqQiUidvy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Mvo8GeDKHJMg4Wjw-JNVMhMHLmIqHhQb</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1RCaChMPCgzxbHLubYHeH-4iBRwREiqSk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=102IYqMYpI1zZZgaP2AZ3n-743Cl6wfak</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1R2ynYoALPxpDNWDyQLXDaTBhoGwInc_D</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_Ez2nIrsQ23HAZ-ZOJP-cB3T3rm4gt67</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1LXNtf3zHc9FBd-Uu1WJv8ZaNrrJIE-CH</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1cA_zwx3EW6Y1RSzzGr536vxbBnkVc-gz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1G7GWItBDJWWF68ODp0Uj9Q-uxncm4Xkp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1GX3U13-5YI1gHI2g7wqJZj37wpLjH0yY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1gXaDZCsYc0eII128AdQ-Z3WJFatGxTis</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1VypBm5F57TtNqHwcsJ-FYMwpdGS2RUEb</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1x5kc9njxNPnMcPc88Dkq-p37Fs_3cEGS</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1mNeGVZNq6bkIN2W0ZUgfZ8B0EMaImrfg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1z8hw7ZyvSyoxCJA73NAVFU_YkqSzyiJ0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1SfvG6kgufY26Rx3dk6KuwVxvc4pFbYqE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_r1lBpaNkrAWG-ZsmWL5EU9dGEoLjlTE</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1oR_iV-j67W_P5c-rElMgx9mcnzrgyVZS</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1AOgMZe-xvPZfEKUJuKUg1PF2PmsVkrnL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1pQJqaiBkebyh-PABOdRler9DAkJVzVDy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1N_iu1vi7zTAFxRkrJ7-1tRlEbWVFxZAx</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1G0MPFj6P22nRfgwycdzcSjBR3fW2RmD2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=19cREmWy90KJlkOoKFgbRPG0RuAlxryjz</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1hA68G010NwH-0RX15tcPQk5uRQTE5cG6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1mfQ8z8fYboEprsD9tvqqj32DGGqXO_jU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1brrpHQcVJLw9pzN0iH202bWU4ryxoaUi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1g1ogvfl0aEeXTzr6GB0V1JkZDhDcDWfO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1dFqhdCha8eKamiHL8fdNJVRUWbcQOBEo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1jlgxtaqb7518SOQM9fBPeGsBCAxDbnOt</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1wf1-Wf4RzL4YqOGnnKps4jfpD_0SGPGo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HxXsLAwZitMKQ_5e-I195zWceLGD9AVZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1k-_Creh2o1nCv4NR4GCC7dswl4-wrkt1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1QPRjq9T1XznzH4A4o8WfjBLhNnoGye99</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1gT752hfJYX4kZ4uJS534d_FY4VSjarZe</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1yylRDNDKuVvg3u4nOg_uaiCkRcwNjsSN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1E2WJUUTs5NMVbvrS0C8PAozusBuwM8mH</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Oa-UWYkJwV6cS_dzTULzQgevN2ik41rr</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HmB4YZc8OIYVAbXU9f3k4uM4kG3eGE3O</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1OLcNwmdclQirRt38c08zAuEJT5OtBhaN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HHYatzg1z0pPnjbxcMUI4sAXmMKIQe-k</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1PAMXSGPpRmrwHYUlDJXoqx3WSWt1LAW-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=16IQBVaLkOFcma_iDy7pcxAfMTFF1HgRF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1kNg7FKHpektfjtPblb-YaF5yuIMIcpgG</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ftkVrvnzsd4wDJdq_dC0WaDc7OBFHnAH</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
     <t>Вес</t>
   </si>
   <si>
+    <t>Количество выставленных оценок</t>
+  </si>
+  <si>
     <t>Берденников Никита</t>
   </si>
   <si>
@@ -1045,18 +1342,6 @@
   </si>
   <si>
     <t>Комментарий</t>
-  </si>
-  <si>
-    <t>1000398</t>
-  </si>
-  <si>
-    <t>1000404</t>
-  </si>
-  <si>
-    <t>1000406</t>
-  </si>
-  <si>
-    <t>1000412</t>
   </si>
   <si>
     <t>1000375</t>
@@ -1095,7 +1380,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy hh:mm"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy hh:mm"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1110,6 +1395,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1144,13 +1436,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1158,12 +1454,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1460,11 +1761,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="113.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="17" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="2" customWidth="1"/>
+    <col min="1" max="17" width="21.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1505,59 +1808,65 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="113.2" customHeight="1">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C2" s="2">
         <v>35908</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L2" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2">
+      <c r="C3" s="2">
         <v>36616</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>277</v>
@@ -1571,28 +1880,31 @@
       <c r="K3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L3" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C4" s="2">
         <v>37050</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>277</v>
@@ -1606,28 +1918,31 @@
       <c r="K4" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L4" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2">
+      <c r="C5" s="2">
         <v>33534</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>277</v>
@@ -1641,28 +1956,31 @@
       <c r="K5" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L5" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2">
+      <c r="C6" s="2">
         <v>36062</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>277</v>
@@ -1676,28 +1994,31 @@
       <c r="K6" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L6" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2">
+      <c r="C7" s="2">
         <v>34445</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>277</v>
@@ -1711,28 +2032,31 @@
       <c r="K7" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L7" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2">
+      <c r="C8" s="2">
         <v>37159</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>277</v>
@@ -1746,63 +2070,69 @@
       <c r="K8" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L8" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2">
+      <c r="C9" s="2">
         <v>34900</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I9" s="1">
         <v>-1</v>
       </c>
       <c r="J9" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L9" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2">
+      <c r="C10" s="2">
         <v>36545</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>277</v>
@@ -1816,63 +2146,69 @@
       <c r="K10" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L10" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2">
+      <c r="C11" s="2">
         <v>33572</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
       <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
         <v>2</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L11" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2">
+      <c r="C12" s="2">
         <v>36693</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>277</v>
@@ -1886,28 +2222,31 @@
       <c r="K12" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L12" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2">
+      <c r="C13" s="2">
         <v>37212</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>277</v>
@@ -1921,28 +2260,31 @@
       <c r="K13" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L13" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="2">
+      <c r="C14" s="2">
         <v>34297</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="E14" s="1" t="s">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>277</v>
@@ -1956,28 +2298,31 @@
       <c r="K14" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L14" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="2">
+      <c r="C15" s="2">
         <v>36952</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="E15" s="1" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>277</v>
@@ -1991,28 +2336,31 @@
       <c r="K15" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L15" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="2">
+      <c r="C16" s="2">
         <v>31466</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>277</v>
@@ -2026,28 +2374,31 @@
       <c r="K16" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L16" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="2">
+      <c r="C17" s="2">
         <v>36087</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>277</v>
@@ -2061,28 +2412,31 @@
       <c r="K17" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L17" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="2">
+      <c r="C18" s="2">
         <v>37173</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>277</v>
@@ -2096,28 +2450,31 @@
       <c r="K18" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L18" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="2">
+      <c r="C19" s="2">
         <v>37285</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>277</v>
@@ -2131,28 +2488,31 @@
       <c r="K19" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L19" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="2">
+      <c r="C20" s="2">
         <v>34340</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="E20" s="1" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>277</v>
@@ -2166,28 +2526,31 @@
       <c r="K20" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L20" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="2">
+      <c r="C21" s="2">
         <v>35733</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>277</v>
@@ -2201,28 +2564,31 @@
       <c r="K21" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L21" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="2">
+      <c r="C22" s="2">
         <v>37379</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="E22" s="1" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>277</v>
@@ -2236,28 +2602,31 @@
       <c r="K22" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L22" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="2">
+      <c r="C23" s="2">
         <v>37754</v>
       </c>
+      <c r="D23" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>277</v>
@@ -2271,28 +2640,31 @@
       <c r="K23" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L23" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="2">
+      <c r="C24" s="2">
         <v>37028</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E24" s="1" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>277</v>
@@ -2306,28 +2678,31 @@
       <c r="K24" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L24" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="2">
+      <c r="C25" s="2">
         <v>37205</v>
       </c>
+      <c r="D25" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>277</v>
@@ -2341,28 +2716,31 @@
       <c r="K25" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L25" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="2">
+      <c r="C26" s="2">
         <v>33296</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>277</v>
@@ -2376,28 +2754,31 @@
       <c r="K26" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L26" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="2">
+      <c r="C27" s="2">
         <v>35542</v>
       </c>
+      <c r="D27" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>277</v>
@@ -2411,28 +2792,31 @@
       <c r="K27" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L27" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="2">
+      <c r="C28" s="2">
         <v>36854</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>277</v>
@@ -2446,63 +2830,69 @@
       <c r="K28" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L28" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="2">
+      <c r="C29" s="2">
         <v>36936</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G29" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
       <c r="H29" s="1">
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="113.2" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="2">
+      <c r="C30" s="2">
         <v>37373</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>277</v>
@@ -2516,28 +2906,31 @@
       <c r="K30" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L30" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="2">
+      <c r="C31" s="2">
         <v>35519</v>
       </c>
+      <c r="D31" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>277</v>
@@ -2551,28 +2944,31 @@
       <c r="K31" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L31" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="2">
+      <c r="C32" s="2">
         <v>34450</v>
       </c>
+      <c r="D32" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="E32" s="1" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>277</v>
@@ -2586,28 +2982,31 @@
       <c r="K32" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L32" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L32" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="2">
+      <c r="C33" s="2">
         <v>37866</v>
       </c>
+      <c r="D33" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="E33" s="1" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>277</v>
@@ -2621,28 +3020,31 @@
       <c r="K33" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L33" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="2">
+      <c r="C34" s="2">
         <v>36433</v>
       </c>
+      <c r="D34" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>277</v>
@@ -2656,28 +3058,31 @@
       <c r="K34" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L34" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="2">
+      <c r="C35" s="2">
         <v>36177</v>
       </c>
+      <c r="D35" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>277</v>
@@ -2691,63 +3096,69 @@
       <c r="K35" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L35" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="2">
+      <c r="C36" s="2">
         <v>34865</v>
       </c>
+      <c r="D36" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G36" s="1" t="s">
         <v>233</v>
       </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
       <c r="H36" s="1">
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" s="1">
-        <v>2</v>
-      </c>
-      <c r="L36" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L36" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="2">
+      <c r="C37" s="2">
         <v>37751</v>
       </c>
+      <c r="D37" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G37" s="1" t="s">
         <v>234</v>
+      </c>
+      <c r="G37" s="1">
+        <v>-1</v>
       </c>
       <c r="H37" s="1">
         <v>-1</v>
@@ -2759,30 +3170,33 @@
         <v>-1</v>
       </c>
       <c r="K37" s="1">
-        <v>-1</v>
-      </c>
-      <c r="L37" s="1">
         <v>-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L37" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="2">
+      <c r="C38" s="2">
         <v>37265</v>
       </c>
+      <c r="D38" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>277</v>
@@ -2796,28 +3210,31 @@
       <c r="K38" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L38" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="2">
+      <c r="C39" s="2">
         <v>37347</v>
       </c>
+      <c r="D39" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>277</v>
@@ -2831,28 +3248,31 @@
       <c r="K39" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L39" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="2">
+      <c r="C40" s="2">
         <v>36802</v>
       </c>
+      <c r="D40" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="E40" s="1" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>277</v>
@@ -2866,28 +3286,31 @@
       <c r="K40" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L40" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="2">
+      <c r="C41" s="2">
         <v>37208</v>
       </c>
+      <c r="D41" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="E41" s="1" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>277</v>
@@ -2901,28 +3324,31 @@
       <c r="K41" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L41" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="2">
+      <c r="C42" s="2">
         <v>37395</v>
       </c>
+      <c r="D42" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="E42" s="1" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>277</v>
@@ -2936,28 +3362,31 @@
       <c r="K42" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L42" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="2">
+      <c r="C43" s="2">
         <v>37783</v>
       </c>
+      <c r="D43" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>277</v>
@@ -2971,133 +3400,145 @@
       <c r="K43" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L43" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="2">
+      <c r="C44" s="2">
         <v>37460</v>
       </c>
+      <c r="D44" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="E44" s="1" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G44" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
       <c r="H44" s="1">
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
         <v>2</v>
       </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L44" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D45" s="2">
+      <c r="C45" s="2">
         <v>36287</v>
       </c>
+      <c r="D45" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="E45" s="1" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G45" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
       <c r="H45" s="1">
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="113.2" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="2">
+      <c r="C46" s="2">
         <v>37063</v>
       </c>
+      <c r="D46" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="E46" s="1" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G46" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
       <c r="H46" s="1">
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="113.2" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="2">
+      <c r="C47" s="2">
         <v>34834</v>
       </c>
+      <c r="D47" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="E47" s="1" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>277</v>
@@ -3111,28 +3552,31 @@
       <c r="K47" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L47" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="2">
+      <c r="C48" s="2">
         <v>36989</v>
       </c>
+      <c r="D48" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="E48" s="1" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>277</v>
@@ -3146,28 +3590,31 @@
       <c r="K48" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L48" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="2">
+      <c r="C49" s="2">
         <v>36829</v>
       </c>
+      <c r="D49" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="E49" s="1" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>277</v>
@@ -3181,29 +3628,32 @@
       <c r="K49" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L49" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="2">
+      <c r="C50" s="2">
         <v>37130</v>
       </c>
+      <c r="D50" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="E50" s="1" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G50" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
       <c r="H50" s="1">
         <v>0</v>
       </c>
@@ -3211,68 +3661,74 @@
         <v>0</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K50" s="1">
         <v>2</v>
       </c>
-      <c r="L50" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L50" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="2">
+      <c r="C51" s="2">
         <v>37501</v>
       </c>
+      <c r="D51" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="E51" s="1" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G51" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
       <c r="H51" s="1">
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="113.2" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="2">
+      <c r="C52" s="2">
         <v>36466</v>
       </c>
+      <c r="D52" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E52" s="1" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>277</v>
@@ -3286,28 +3742,31 @@
       <c r="K52" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L52" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="2">
+      <c r="C53" s="2">
         <v>31918</v>
       </c>
+      <c r="D53" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="E53" s="1" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>277</v>
@@ -3321,28 +3780,31 @@
       <c r="K53" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L53" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="2">
+      <c r="C54" s="2">
         <v>37193</v>
       </c>
+      <c r="D54" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="E54" s="1" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>277</v>
@@ -3356,28 +3818,31 @@
       <c r="K54" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L54" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="2">
+      <c r="C55" s="2">
         <v>37102</v>
       </c>
+      <c r="D55" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="E55" s="1" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>277</v>
@@ -3391,28 +3856,31 @@
       <c r="K55" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L55" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L55" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="2">
+      <c r="C56" s="2">
         <v>36700</v>
       </c>
+      <c r="D56" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="E56" s="1" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>277</v>
@@ -3426,28 +3894,31 @@
       <c r="K56" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L56" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="2">
+      <c r="C57" s="2">
         <v>36413</v>
       </c>
+      <c r="D57" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="E57" s="1" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>277</v>
@@ -3461,28 +3932,31 @@
       <c r="K57" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L57" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L57" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="2">
+      <c r="C58" s="2">
         <v>36668</v>
       </c>
+      <c r="D58" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="E58" s="1" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>277</v>
@@ -3496,28 +3970,31 @@
       <c r="K58" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L58" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L58" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D59" s="2">
+      <c r="C59" s="2">
         <v>32607</v>
       </c>
+      <c r="D59" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="E59" s="1" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>277</v>
@@ -3531,28 +4008,31 @@
       <c r="K59" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L59" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L59" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="2">
+      <c r="C60" s="2">
         <v>36895</v>
       </c>
+      <c r="D60" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="E60" s="1" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>277</v>
@@ -3566,28 +4046,31 @@
       <c r="K60" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L60" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D61" s="2">
+      <c r="C61" s="2">
         <v>34388</v>
       </c>
+      <c r="D61" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="E61" s="1" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>277</v>
@@ -3601,28 +4084,31 @@
       <c r="K61" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L61" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D62" s="2">
+      <c r="C62" s="2">
         <v>37455</v>
       </c>
+      <c r="D62" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="E62" s="1" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>277</v>
@@ -3636,28 +4122,31 @@
       <c r="K62" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L62" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L62" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="2">
+      <c r="C63" s="2">
         <v>35091</v>
       </c>
+      <c r="D63" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="E63" s="1" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>277</v>
@@ -3671,28 +4160,31 @@
       <c r="K63" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L63" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L63" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D64" s="2">
+      <c r="C64" s="2">
         <v>37579</v>
       </c>
+      <c r="D64" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="E64" s="1" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>277</v>
@@ -3706,28 +4198,31 @@
       <c r="K64" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L64" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D65" s="2">
+      <c r="C65" s="2">
         <v>36999</v>
       </c>
+      <c r="D65" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="E65" s="1" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>277</v>
@@ -3741,28 +4236,31 @@
       <c r="K65" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L65" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L65" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="2">
+      <c r="C66" s="2">
         <v>35633</v>
       </c>
+      <c r="D66" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="E66" s="1" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>277</v>
@@ -3776,28 +4274,31 @@
       <c r="K66" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L66" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L66" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="2">
+      <c r="C67" s="2">
         <v>37521</v>
       </c>
+      <c r="D67" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="E67" s="1" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>277</v>
@@ -3811,29 +4312,32 @@
       <c r="K67" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L67" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L67" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="2">
+      <c r="C68" s="2">
         <v>36489</v>
       </c>
+      <c r="D68" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="E68" s="1" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G68" s="1" t="s">
         <v>255</v>
       </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
       <c r="H68" s="1">
         <v>0</v>
       </c>
@@ -3841,33 +4345,36 @@
         <v>0</v>
       </c>
       <c r="J68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="1">
         <v>1</v>
       </c>
-      <c r="L68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L68" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D69" s="2">
+      <c r="C69" s="2">
         <v>34213</v>
       </c>
+      <c r="D69" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="E69" s="1" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>277</v>
@@ -3881,28 +4388,31 @@
       <c r="K69" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L69" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L69" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D70" s="2">
+      <c r="C70" s="2">
         <v>36694</v>
       </c>
+      <c r="D70" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="E70" s="1" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>277</v>
@@ -3916,63 +4426,69 @@
       <c r="K70" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L70" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L70" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D71" s="2">
+      <c r="C71" s="2">
         <v>37141</v>
       </c>
+      <c r="D71" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E71" s="1" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G71" s="1" t="s">
         <v>258</v>
       </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
       <c r="H71" s="1">
         <v>0</v>
       </c>
       <c r="I71" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
         <v>2</v>
       </c>
-      <c r="K71" s="1">
-        <v>0</v>
-      </c>
-      <c r="L71" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L71" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="2">
+      <c r="C72" s="2">
         <v>37602</v>
       </c>
+      <c r="D72" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="E72" s="1" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>277</v>
@@ -3986,28 +4502,31 @@
       <c r="K72" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L72" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L72" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="2">
+      <c r="C73" s="2">
         <v>37474</v>
       </c>
+      <c r="D73" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="E73" s="1" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>277</v>
@@ -4021,28 +4540,31 @@
       <c r="K73" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L73" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L73" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D74" s="2">
+      <c r="C74" s="2">
         <v>37692</v>
       </c>
+      <c r="D74" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="E74" s="1" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>277</v>
@@ -4056,28 +4578,31 @@
       <c r="K74" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L74" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L74" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D75" s="2">
+      <c r="C75" s="2">
         <v>36214</v>
       </c>
+      <c r="D75" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="E75" s="1" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>277</v>
@@ -4091,28 +4616,31 @@
       <c r="K75" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L75" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L75" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D76" s="2">
+      <c r="C76" s="2">
         <v>37048</v>
       </c>
+      <c r="D76" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="E76" s="1" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>277</v>
@@ -4126,28 +4654,31 @@
       <c r="K76" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L76" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L76" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D77" s="2">
+      <c r="C77" s="2">
         <v>34904</v>
       </c>
+      <c r="D77" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="E77" s="1" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>277</v>
@@ -4161,63 +4692,69 @@
       <c r="K77" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L77" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L77" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D78" s="2">
+      <c r="C78" s="2">
         <v>32542</v>
       </c>
+      <c r="D78" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="E78" s="1" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G78" s="1" t="s">
         <v>260</v>
       </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
       <c r="H78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="1">
         <v>0</v>
       </c>
       <c r="K78" s="1">
-        <v>0</v>
-      </c>
-      <c r="L78" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="113.2" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D79" s="2">
+      <c r="C79" s="2">
         <v>36251</v>
       </c>
+      <c r="D79" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="E79" s="1" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>277</v>
@@ -4231,28 +4768,31 @@
       <c r="K79" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L79" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L79" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D80" s="2">
+      <c r="C80" s="2">
         <v>36443</v>
       </c>
+      <c r="D80" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="E80" s="1" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>277</v>
@@ -4266,28 +4806,31 @@
       <c r="K80" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L80" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L80" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D81" s="2">
+      <c r="C81" s="2">
         <v>34949</v>
       </c>
+      <c r="D81" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="E81" s="1" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>277</v>
@@ -4301,28 +4844,31 @@
       <c r="K81" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L81" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L81" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D82" s="2">
+      <c r="C82" s="2">
         <v>30527</v>
       </c>
+      <c r="D82" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="E82" s="1" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>277</v>
@@ -4336,28 +4882,31 @@
       <c r="K82" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L82" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L82" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D83" s="2">
+      <c r="C83" s="2">
         <v>37877</v>
       </c>
+      <c r="D83" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="E83" s="1" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>277</v>
@@ -4371,28 +4920,31 @@
       <c r="K83" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L83" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L83" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D84" s="2">
+      <c r="C84" s="2">
         <v>37887</v>
       </c>
+      <c r="D84" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="E84" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>277</v>
@@ -4406,63 +4958,69 @@
       <c r="K84" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L84" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L84" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D85" s="2">
+      <c r="C85" s="2">
         <v>36784</v>
       </c>
+      <c r="D85" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="E85" s="1" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G85" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
       <c r="H85" s="1">
         <v>0</v>
       </c>
       <c r="I85" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
         <v>-1</v>
       </c>
-      <c r="K85" s="1">
-        <v>0</v>
-      </c>
-      <c r="L85" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L85" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D86" s="2">
+      <c r="C86" s="2">
         <v>37528</v>
       </c>
+      <c r="D86" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="E86" s="1" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>277</v>
@@ -4476,28 +5034,31 @@
       <c r="K86" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L86" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L86" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D87" s="2">
+      <c r="C87" s="2">
         <v>36536</v>
       </c>
+      <c r="D87" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="E87" s="1" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>277</v>
@@ -4511,28 +5072,31 @@
       <c r="K87" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L87" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L87" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D88" s="2">
+      <c r="C88" s="2">
         <v>37535</v>
       </c>
+      <c r="D88" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="E88" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>210</v>
+        <v>266</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>277</v>
@@ -4546,28 +5110,31 @@
       <c r="K88" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L88" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L88" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D89" s="2">
+      <c r="C89" s="2">
         <v>35767</v>
       </c>
+      <c r="D89" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="E89" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>277</v>
@@ -4581,28 +5148,31 @@
       <c r="K89" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L89" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L89" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="2">
+      <c r="C90" s="2">
         <v>36465</v>
       </c>
+      <c r="D90" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="E90" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>277</v>
@@ -4616,98 +5186,107 @@
       <c r="K90" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L90" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L90" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D91" s="2">
+      <c r="C91" s="2">
         <v>36727</v>
       </c>
+      <c r="D91" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="E91" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G91" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
       <c r="H91" s="1">
         <v>0</v>
       </c>
       <c r="I91" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1">
         <v>2</v>
       </c>
-      <c r="K91" s="1">
-        <v>0</v>
-      </c>
-      <c r="L91" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L91" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D92" s="2">
+      <c r="C92" s="2">
         <v>37059</v>
       </c>
+      <c r="D92" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="E92" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G92" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
       <c r="H92" s="1">
         <v>0</v>
       </c>
       <c r="I92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" s="1">
-        <v>0</v>
-      </c>
-      <c r="L92" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="113.2" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D93" s="2">
+      <c r="C93" s="2">
         <v>33166</v>
       </c>
+      <c r="D93" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="E93" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>277</v>
@@ -4721,63 +5300,69 @@
       <c r="K93" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L93" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L93" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D94" s="2">
+      <c r="C94" s="2">
         <v>37287</v>
       </c>
+      <c r="D94" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="E94" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G94" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
       <c r="H94" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" s="1">
         <v>1</v>
       </c>
       <c r="K94" s="1">
-        <v>1</v>
-      </c>
-      <c r="L94" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L94" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D95" s="2">
+      <c r="C95" s="2">
         <v>35980</v>
       </c>
+      <c r="D95" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="E95" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>277</v>
@@ -4791,28 +5376,31 @@
       <c r="K95" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L95" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L95" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D96" s="2">
+      <c r="C96" s="2">
         <v>36135</v>
       </c>
+      <c r="D96" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="E96" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>277</v>
@@ -4826,28 +5414,31 @@
       <c r="K96" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L96" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L96" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D97" s="2">
+      <c r="C97" s="2">
         <v>37584</v>
       </c>
+      <c r="D97" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="E97" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>277</v>
@@ -4861,28 +5452,31 @@
       <c r="K97" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L97" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L97" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D98" s="2">
+      <c r="C98" s="2">
         <v>35174</v>
       </c>
+      <c r="D98" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="E98" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>277</v>
@@ -4896,28 +5490,31 @@
       <c r="K98" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L98" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="113.2" customHeight="1">
+      <c r="L98" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D99" s="2">
+      <c r="C99" s="2">
         <v>34527</v>
       </c>
+      <c r="D99" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="E99" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>277</v>
@@ -4931,11 +5528,111 @@
       <c r="K99" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L99" s="1" t="s">
-        <v>277</v>
+      <c r="L99" s="4" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L10" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+    <hyperlink ref="L13" r:id="rId12"/>
+    <hyperlink ref="L14" r:id="rId13"/>
+    <hyperlink ref="L15" r:id="rId14"/>
+    <hyperlink ref="L16" r:id="rId15"/>
+    <hyperlink ref="L17" r:id="rId16"/>
+    <hyperlink ref="L18" r:id="rId17"/>
+    <hyperlink ref="L19" r:id="rId18"/>
+    <hyperlink ref="L20" r:id="rId19"/>
+    <hyperlink ref="L21" r:id="rId20"/>
+    <hyperlink ref="L22" r:id="rId21"/>
+    <hyperlink ref="L23" r:id="rId22"/>
+    <hyperlink ref="L24" r:id="rId23"/>
+    <hyperlink ref="L25" r:id="rId24"/>
+    <hyperlink ref="L26" r:id="rId25"/>
+    <hyperlink ref="L27" r:id="rId26"/>
+    <hyperlink ref="L28" r:id="rId27"/>
+    <hyperlink ref="L29" r:id="rId28"/>
+    <hyperlink ref="L30" r:id="rId29"/>
+    <hyperlink ref="L31" r:id="rId30"/>
+    <hyperlink ref="L32" r:id="rId31"/>
+    <hyperlink ref="L33" r:id="rId32"/>
+    <hyperlink ref="L34" r:id="rId33"/>
+    <hyperlink ref="L35" r:id="rId34"/>
+    <hyperlink ref="L36" r:id="rId35"/>
+    <hyperlink ref="L37" r:id="rId36"/>
+    <hyperlink ref="L38" r:id="rId37"/>
+    <hyperlink ref="L39" r:id="rId38"/>
+    <hyperlink ref="L40" r:id="rId39"/>
+    <hyperlink ref="L41" r:id="rId40"/>
+    <hyperlink ref="L42" r:id="rId41"/>
+    <hyperlink ref="L43" r:id="rId42"/>
+    <hyperlink ref="L44" r:id="rId43"/>
+    <hyperlink ref="L45" r:id="rId44"/>
+    <hyperlink ref="L46" r:id="rId45"/>
+    <hyperlink ref="L47" r:id="rId46"/>
+    <hyperlink ref="L48" r:id="rId47"/>
+    <hyperlink ref="L49" r:id="rId48"/>
+    <hyperlink ref="L50" r:id="rId49"/>
+    <hyperlink ref="L51" r:id="rId50"/>
+    <hyperlink ref="L52" r:id="rId51"/>
+    <hyperlink ref="L53" r:id="rId52"/>
+    <hyperlink ref="L54" r:id="rId53"/>
+    <hyperlink ref="L55" r:id="rId54"/>
+    <hyperlink ref="L56" r:id="rId55"/>
+    <hyperlink ref="L57" r:id="rId56"/>
+    <hyperlink ref="L58" r:id="rId57"/>
+    <hyperlink ref="L59" r:id="rId58"/>
+    <hyperlink ref="L60" r:id="rId59"/>
+    <hyperlink ref="L61" r:id="rId60"/>
+    <hyperlink ref="L62" r:id="rId61"/>
+    <hyperlink ref="L63" r:id="rId62"/>
+    <hyperlink ref="L64" r:id="rId63"/>
+    <hyperlink ref="L65" r:id="rId64"/>
+    <hyperlink ref="L66" r:id="rId65"/>
+    <hyperlink ref="L67" r:id="rId66"/>
+    <hyperlink ref="L68" r:id="rId67"/>
+    <hyperlink ref="L69" r:id="rId68"/>
+    <hyperlink ref="L70" r:id="rId69"/>
+    <hyperlink ref="L71" r:id="rId70"/>
+    <hyperlink ref="L72" r:id="rId71"/>
+    <hyperlink ref="L73" r:id="rId72"/>
+    <hyperlink ref="L74" r:id="rId73"/>
+    <hyperlink ref="L75" r:id="rId74"/>
+    <hyperlink ref="L76" r:id="rId75"/>
+    <hyperlink ref="L77" r:id="rId76"/>
+    <hyperlink ref="L78" r:id="rId77"/>
+    <hyperlink ref="L79" r:id="rId78"/>
+    <hyperlink ref="L80" r:id="rId79"/>
+    <hyperlink ref="L81" r:id="rId80"/>
+    <hyperlink ref="L82" r:id="rId81"/>
+    <hyperlink ref="L83" r:id="rId82"/>
+    <hyperlink ref="L84" r:id="rId83"/>
+    <hyperlink ref="L85" r:id="rId84"/>
+    <hyperlink ref="L86" r:id="rId85"/>
+    <hyperlink ref="L87" r:id="rId86"/>
+    <hyperlink ref="L88" r:id="rId87"/>
+    <hyperlink ref="L89" r:id="rId88"/>
+    <hyperlink ref="L90" r:id="rId89"/>
+    <hyperlink ref="L91" r:id="rId90"/>
+    <hyperlink ref="L92" r:id="rId91"/>
+    <hyperlink ref="L93" r:id="rId92"/>
+    <hyperlink ref="L94" r:id="rId93"/>
+    <hyperlink ref="L95" r:id="rId94"/>
+    <hyperlink ref="L96" r:id="rId95"/>
+    <hyperlink ref="L97" r:id="rId96"/>
+    <hyperlink ref="L98" r:id="rId97"/>
+    <hyperlink ref="L99" r:id="rId98"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4946,10 +5643,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="113.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="1" max="5" width="21.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4960,458 +5657,554 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>278</v>
+        <v>377</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="113.2" customHeight="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>307</v>
+        <v>406</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>308</v>
+        <v>407</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>309</v>
+        <v>408</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>310</v>
+        <v>409</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>6</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>311</v>
+        <v>410</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>7</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>312</v>
+        <v>411</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>8</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>313</v>
+        <v>412</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>9</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>314</v>
+        <v>413</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>10</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>315</v>
+        <v>414</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>11</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>316</v>
+        <v>415</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>12</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>317</v>
+        <v>416</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>13</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>318</v>
+        <v>417</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>14</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>319</v>
+        <v>418</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>15</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>320</v>
+        <v>419</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>16</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>321</v>
+        <v>420</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>17</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>322</v>
+        <v>421</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>18</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>323</v>
+        <v>422</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>19</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>324</v>
+        <v>423</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>20</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>325</v>
+        <v>424</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>21</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>326</v>
+        <v>425</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="113.2" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>23</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>327</v>
+        <v>426</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>24</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>328</v>
+        <v>427</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>25</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>329</v>
+        <v>428</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>26</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>330</v>
+        <v>429</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>27</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>331</v>
+        <v>430</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="113.2" customHeight="1">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>28</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>332</v>
+        <v>431</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>29</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>333</v>
+        <v>432</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="113.2" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>30</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>334</v>
+        <v>433</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>31</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>335</v>
+        <v>434</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>32</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>336</v>
+        <v>435</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>33</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>337</v>
+        <v>436</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="113.2" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>34</v>
       </c>
+      <c r="B33" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>338</v>
+        <v>437</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -5430,675 +6223,675 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="14" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="4" customWidth="1"/>
+    <col min="1" max="14" width="30.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>339</v>
+        <v>438</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>340</v>
+        <v>439</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>341</v>
+        <v>440</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5">
+        <v>84</v>
+      </c>
+      <c r="B2" s="5">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7">
+        <v>44483.80849641481</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5">
+        <v>49</v>
+      </c>
+      <c r="B3" s="5">
+        <v>21</v>
+      </c>
+      <c r="C3" s="7">
+        <v>44483.80849641481</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5">
+        <v>67</v>
+      </c>
+      <c r="B4" s="5">
+        <v>27</v>
+      </c>
+      <c r="C4" s="7">
+        <v>44483.80849641481</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7">
+        <v>44483.80849641481</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
+        <v>44483.80849641481</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5">
+        <v>70</v>
+      </c>
+      <c r="B7" s="5">
+        <v>29</v>
+      </c>
+      <c r="C7" s="7">
+        <v>44483.80849641481</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5">
+        <v>70</v>
+      </c>
+      <c r="B8" s="5">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7">
+        <v>44483.80849641481</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7">
+        <v>44483.80849641481</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5">
+        <v>90</v>
+      </c>
+      <c r="B10" s="5">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7">
+        <v>44483.80849641481</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>84</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B11" s="5">
+        <v>29</v>
+      </c>
+      <c r="C11" s="7">
         <v>44483.80849641481</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>29</v>
+      </c>
+      <c r="C12" s="7">
+        <v>44483.80849641481</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
         <v>-1</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>49</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="F12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7">
         <v>44483.80849641481</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>67</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5">
+        <v>43</v>
+      </c>
+      <c r="B14" s="5">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7">
         <v>44483.80849641481</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5">
+        <v>77</v>
+      </c>
+      <c r="B15" s="5">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7">
         <v>44483.80849641481</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5">
+        <v>77</v>
+      </c>
+      <c r="B16" s="5">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7">
+        <v>44483.80849641481</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7">
+        <v>44483.80849641481</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="5">
+        <v>50</v>
+      </c>
+      <c r="B18" s="5">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7">
+        <v>44483.80849641481</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="5">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5">
+        <v>29</v>
+      </c>
+      <c r="C19" s="7">
+        <v>44483.80849641481</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7">
+        <v>44483.80849641481</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="5">
+        <v>91</v>
+      </c>
+      <c r="B21" s="5">
+        <v>29</v>
+      </c>
+      <c r="C21" s="7">
+        <v>44483.80849641481</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="5">
+        <v>93</v>
+      </c>
+      <c r="B22" s="5">
+        <v>34</v>
+      </c>
+      <c r="C22" s="7">
+        <v>44483.80849641481</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="5">
+        <v>36</v>
+      </c>
+      <c r="B23" s="5">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7">
         <v>44483.80849641481</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>70</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C7" s="5">
-        <v>44483.80849641481</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="D23" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C24" s="7">
+        <v>44484.78033715807</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="5">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C25" s="7">
+        <v>44484.78092884818</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C26" s="7">
+        <v>44484.781590046</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>70</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44483.80849641481</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C9" s="5">
-        <v>44483.80849641481</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>90</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C10" s="5">
-        <v>44483.80849641481</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C11" s="5">
-        <v>44483.80849641481</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C12" s="5">
-        <v>44483.80849641481</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>43</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C13" s="5">
-        <v>44483.80849641481</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C14" s="5">
-        <v>44483.80849641481</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>77</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C15" s="5">
-        <v>44483.80849641481</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>77</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C16" s="5">
-        <v>44483.80849641481</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C17" s="5">
-        <v>44483.80849641481</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>50</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C18" s="5">
-        <v>44483.80849641481</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
-        <v>50</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C19" s="5">
-        <v>44483.80849641481</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C20" s="5">
-        <v>44483.80849641481</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
-        <v>91</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C21" s="5">
-        <v>44483.80849641481</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1">
-        <v>93</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C22" s="5">
-        <v>44483.80849641481</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1">
-        <v>36</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C23" s="5">
-        <v>44483.80849641481</v>
-      </c>
-      <c r="D23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C24" s="5">
-        <v>44484.78033715807</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C25" s="5">
-        <v>44484.78092884818</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C26" s="5">
-        <v>44484.781590046</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="A27" s="5">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C27" s="7">
         <v>44484.7821232533</v>
       </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="A28" s="5">
+        <v>1</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C28" s="7">
         <v>44484.78266094978</v>
       </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
         <v>0</v>
       </c>
     </row>
